--- a/pond_ripple/stability_values.xlsx
+++ b/pond_ripple/stability_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,19 +449,35 @@
           <t>dy</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>h_step</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>0.849999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -483,12 +505,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -497,13 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.6999999999999988</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>0.6499999999999988</v>
       </c>
       <c r="C6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>0.5999999999999988</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -539,12 +585,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>0.5499999999999987</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,13 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.4999999999999987</v>
       </c>
       <c r="C9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5</v>
+        <v>0.4499999999999986</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -595,12 +665,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>0.3499999999999985</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,13 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.2999999999999985</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.2499999999999984</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.1999999999999984</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -651,12 +745,18 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.1499999999999984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -665,13 +765,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.09999999999999831</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.04999999999999827</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
